--- a/4.- Equities_Risk_II.xlsx
+++ b/4.- Equities_Risk_II.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/6-ITESO/Administración de Riesgos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891FD43C-F788-6442-A5D7-E2EE82E321FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366D6B9B-0D5B-B945-907A-3347A7DC3C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{B7039D90-EE74-9940-9408-A608113B982F}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>ETF</t>
   </si>
@@ -174,6 +174,15 @@
   </si>
   <si>
     <t>Rebalancear mi portafolio, vendiendo en corto 23 acciones de AAPL, 44 de MSFT, y comprando 173 acciones de NVDA y 11 de GOOGL</t>
+  </si>
+  <si>
+    <t>Futuros: Long future por la posición necesaria para que mi VaR sea igual a $121,000</t>
+  </si>
+  <si>
+    <t>Opciones: Short put, y con la prima que me pagan compras un call.</t>
+  </si>
+  <si>
+    <t>Swaps: Me pongo como protection seller, me pagan una prima y pago una tasa.</t>
   </si>
 </sst>
 </file>
@@ -680,7 +689,7 @@
   <dimension ref="B2:P777"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -887,7 +896,20 @@
         <v>26</v>
       </c>
     </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
       <c r="N21" t="s">
         <v>20</v>
       </c>

--- a/4.- Equities_Risk_II.xlsx
+++ b/4.- Equities_Risk_II.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/6-ITESO/Administración de Riesgos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366D6B9B-0D5B-B945-907A-3347A7DC3C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE29218A-910F-904C-B861-BA16B3A1FB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{B7039D90-EE74-9940-9408-A608113B982F}"/>
   </bookViews>
@@ -285,7 +285,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -316,7 +316,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -689,7 +688,7 @@
   <dimension ref="B2:P777"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -769,7 +768,7 @@
         <f t="shared" si="0"/>
         <v>290821.60000000003</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <f>SUM(C6:F6)</f>
         <v>4342422.0199999996</v>
       </c>
@@ -791,7 +790,7 @@
       <c r="F7" s="12">
         <v>6.6447234740359781E-2</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="20">
         <f>SUM(C7:F7)</f>
         <v>1.0000000002294414</v>
       </c>
@@ -816,28 +815,28 @@
         <f t="shared" si="1"/>
         <v>6.6972210130787815E-2</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="20">
         <f>SUM(C8:F8)</f>
         <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <f>ROUNDDOWN(((C7-C8)*$G$6)/C25,0)</f>
         <v>23</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <f t="shared" ref="D9:F9" si="2">ROUNDDOWN(((D7-D8)*$G$6)/D25,0)</f>
         <v>44</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <f t="shared" si="2"/>
         <v>-173</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <f t="shared" si="2"/>
         <v>-11</v>
       </c>
@@ -849,7 +848,7 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="2"/>
@@ -858,7 +857,7 @@
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="2"/>

--- a/4.- Equities_Risk_II.xlsx
+++ b/4.- Equities_Risk_II.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/6-ITESO/Administración de Riesgos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE29218A-910F-904C-B861-BA16B3A1FB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342E7147-A014-5944-B374-20599AEB0C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{B7039D90-EE74-9940-9408-A608113B982F}"/>
   </bookViews>
@@ -285,7 +285,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -320,6 +320,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -687,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F9455B-D474-934D-9695-97C101876253}">
   <dimension ref="B2:P777"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="125" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -705,12 +706,12 @@
     <col min="15" max="16" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
@@ -730,7 +731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -748,7 +749,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
@@ -774,7 +775,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
@@ -795,7 +796,7 @@
         <v>1.0000000002294414</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
@@ -820,7 +821,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
@@ -841,13 +842,13 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="21" t="s">
         <v>24</v>
       </c>
@@ -855,8 +856,9 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="L11" s="22"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="21" t="s">
         <v>25</v>
       </c>
@@ -865,13 +867,13 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -880,12 +882,12 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>11</v>
       </c>

--- a/4.- Equities_Risk_II.xlsx
+++ b/4.- Equities_Risk_II.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/6-ITESO/Administración de Riesgos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88124A66-916D-4D4F-B9A8-BFFA8442EBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8649E8FB-38A3-ED43-A0D2-1EF48EB8F40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{B7039D90-EE74-9940-9408-A608113B982F}"/>
+    <workbookView xWindow="4440" yWindow="740" windowWidth="24960" windowHeight="18380" xr2:uid="{B7039D90-EE74-9940-9408-A608113B982F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -192,7 +192,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -322,7 +322,7 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -691,7 +691,7 @@
   <dimension ref="B2:P777"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -812,7 +812,7 @@
         <v>0.45350885771346572</v>
       </c>
       <c r="E8" s="12">
-        <f t="shared" ref="D8:F8" si="0">E6/$G$6</f>
+        <f t="shared" ref="E8:F8" si="0">E6/$G$6</f>
         <v>0.16302213988865136</v>
       </c>
       <c r="F8" s="12">
@@ -27115,7 +27115,7 @@
         <v>127.7145</v>
       </c>
       <c r="G731" s="1">
-        <f t="shared" ref="G731:G777" si="59">C730/C731-1</f>
+        <f t="shared" ref="G731:G776" si="59">C730/C731-1</f>
         <v>1.6342598115233198E-2</v>
       </c>
       <c r="H731" s="1">
